--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:41:09+00:00</t>
+    <t>2025-10-23T09:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:05:48+00:00</t>
+    <t>2025-10-27T10:36:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:36:37+00:00</t>
+    <t>2025-10-30T10:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,7 +595,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/medicationStatement-meds-codes-vs</t>
+    <t>http://testSK.org/ValueSet/medication-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -2676,7 +2676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>161</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>90</v>
@@ -3126,7 +3126,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>196</v>
       </c>
@@ -3139,13 +3139,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>21</v>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:02:42+00:00</t>
+    <t>2025-10-30T10:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:05:12+00:00</t>
+    <t>2025-10-30T11:02:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T11:02:24+00:00</t>
+    <t>2025-10-31T12:12:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T12:12:50+00:00</t>
+    <t>2025-11-03T16:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/StructureDefinition/prior-medication-statement-profile</t>
+    <t>http://tecnomod-um.org/StructureDefinition/prior-medication-statement-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T16:51:09+00:00</t>
+    <t>2025-11-06T10:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -595,7 +595,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/medication-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/medication-vs</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:00:48+00:00</t>
+    <t>2025-11-18T09:01:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:01:12+00:00</t>
+    <t>2025-11-18T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:36:46+00:00</t>
+    <t>2025-11-18T09:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:43:16+00:00</t>
+    <t>2025-11-18T10:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:05:08+00:00</t>
+    <t>2025-11-18T10:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:22:08+00:00</t>
+    <t>2025-11-18T10:33:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:33:59+00:00</t>
+    <t>2025-11-18T10:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:41:07+00:00</t>
+    <t>2025-11-18T10:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:43:22+00:00</t>
+    <t>2025-11-18T10:45:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:45:59+00:00</t>
+    <t>2025-11-18T10:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:58:35+00:00</t>
+    <t>2025-11-18T11:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:10:00+00:00</t>
+    <t>2025-11-18T11:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:17:36+00:00</t>
+    <t>2025-11-18T11:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:44:59+00:00</t>
+    <t>2025-11-18T11:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:54:03+00:00</t>
+    <t>2025-11-19T08:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:51:11+00:00</t>
+    <t>2025-11-19T08:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:58:25+00:00</t>
+    <t>2025-11-19T09:26:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-prior-medication-statement-profile.xlsx
+++ b/StructureDefinition-prior-medication-statement-profile.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:26:24+00:00</t>
+    <t>2025-11-19T10:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
